--- a/Docs/03_詳細設計/0302_画面処理/画面処理（ファイル出力画面_出力）.xlsx
+++ b/Docs/03_詳細設計/0302_画面処理/画面処理（ファイル出力画面_出力）.xlsx
@@ -772,6 +772,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,9 +797,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
@@ -847,14 +847,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>313604</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618265</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>65959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -874,7 +874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="381000" y="523875"/>
-          <a:ext cx="5771429" cy="5723809"/>
+          <a:ext cx="6876190" cy="5723809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,7 +1001,7 @@
   <tableColumns count="5">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="項目名"/>
-    <tableColumn id="3" name="物理項目名" dataDxfId="4"/>
+    <tableColumn id="3" name="物理項目名" dataDxfId="5"/>
     <tableColumn id="4" name="設定値"/>
     <tableColumn id="5" name="備考"/>
   </tableColumns>
@@ -1015,7 +1015,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="項目名"/>
-    <tableColumn id="3" name="物理項目名" dataDxfId="5"/>
+    <tableColumn id="3" name="物理項目名" dataDxfId="4"/>
     <tableColumn id="4" name="降順/昇順"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -1341,20 +1341,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1362,18 +1362,18 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1965,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1980,12 +1980,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1997,10 +1997,10 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
@@ -2304,7 +2304,7 @@
     <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3"/>
@@ -2404,7 +2404,7 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2416,7 +2416,7 @@
     <row r="40" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="3"/>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="3"/>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="3"/>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F54" s="3"/>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="23" t="s">
         <v>53</v>
       </c>
       <c r="F60" s="3"/>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F66" s="3"/>
@@ -2859,7 +2859,7 @@
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
